--- a/data/fo_result_402.xlsx
+++ b/data/fo_result_402.xlsx
@@ -1876,7 +1876,7 @@
         <v>0</v>
       </c>
       <c r="CU2">
-        <v>2.4971743</v>
+        <v>0</v>
       </c>
       <c r="CV2">
         <v>0</v>
@@ -2020,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="EQ2">
-        <v>4.1134306</v>
+        <v>0</v>
       </c>
       <c r="ER2">
         <v>0</v>
@@ -2044,7 +2044,7 @@
         <v>0</v>
       </c>
       <c r="EY2">
-        <v>62.9114263</v>
+        <v>0</v>
       </c>
       <c r="EZ2">
         <v>0</v>
@@ -2089,7 +2089,7 @@
         <v>0</v>
       </c>
       <c r="FN2">
-        <v>9.959338600000001</v>
+        <v>0</v>
       </c>
       <c r="FO2">
         <v>0</v>
@@ -2173,7 +2173,7 @@
         <v>0</v>
       </c>
       <c r="GP2">
-        <v>3.6433795</v>
+        <v>0</v>
       </c>
       <c r="GQ2">
         <v>0</v>
@@ -2188,7 +2188,7 @@
         <v>0</v>
       </c>
       <c r="GU2">
-        <v>7.8329896</v>
+        <v>0</v>
       </c>
       <c r="GV2">
         <v>0</v>
@@ -2293,7 +2293,7 @@
         <v>0</v>
       </c>
       <c r="ID2">
-        <v>3.1459774</v>
+        <v>0</v>
       </c>
       <c r="IE2">
         <v>0</v>
@@ -2401,7 +2401,7 @@
         <v>0</v>
       </c>
       <c r="JN2">
-        <v>68.08288450000001</v>
+        <v>0</v>
       </c>
       <c r="JO2">
         <v>0</v>
@@ -2422,7 +2422,7 @@
         <v>0</v>
       </c>
       <c r="JU2">
-        <v>2.9039967</v>
+        <v>0</v>
       </c>
       <c r="JV2">
         <v>0</v>
@@ -2877,7 +2877,7 @@
         <v>0</v>
       </c>
       <c r="AC3">
-        <v>4.3919564</v>
+        <v>0</v>
       </c>
       <c r="AD3">
         <v>0</v>
@@ -3087,7 +3087,7 @@
         <v>0</v>
       </c>
       <c r="CU3">
-        <v>1.6748697</v>
+        <v>0</v>
       </c>
       <c r="CV3">
         <v>0</v>
@@ -3255,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="EY3">
-        <v>29.6528857</v>
+        <v>0</v>
       </c>
       <c r="EZ3">
         <v>0</v>
@@ -3432,7 +3432,7 @@
         <v>0</v>
       </c>
       <c r="HF3">
-        <v>1.7910163</v>
+        <v>0</v>
       </c>
       <c r="HG3">
         <v>0</v>
@@ -3531,7 +3531,7 @@
         <v>1.2107749</v>
       </c>
       <c r="IM3">
-        <v>21.1665986</v>
+        <v>0</v>
       </c>
       <c r="IN3">
         <v>296.4922832</v>
@@ -3612,7 +3612,7 @@
         <v>0</v>
       </c>
       <c r="JN3">
-        <v>32.5921031</v>
+        <v>0</v>
       </c>
       <c r="JO3">
         <v>0</v>
@@ -3714,7 +3714,7 @@
         <v>467.6714081</v>
       </c>
       <c r="KV3">
-        <v>7.0936308</v>
+        <v>0</v>
       </c>
       <c r="KW3">
         <v>466.9699179</v>
@@ -3792,7 +3792,7 @@
         <v>0</v>
       </c>
       <c r="LV3">
-        <v>2.903116</v>
+        <v>0</v>
       </c>
       <c r="LW3">
         <v>0</v>
@@ -4142,7 +4142,7 @@
         <v>0</v>
       </c>
       <c r="AU4">
-        <v>1.5450579</v>
+        <v>0</v>
       </c>
       <c r="AV4">
         <v>0</v>
@@ -4205,7 +4205,7 @@
         <v>4.4924651</v>
       </c>
       <c r="BP4">
-        <v>3.4593523</v>
+        <v>0</v>
       </c>
       <c r="BQ4">
         <v>0</v>
@@ -4268,7 +4268,7 @@
         <v>0</v>
       </c>
       <c r="CK4">
-        <v>4.5074737</v>
+        <v>0</v>
       </c>
       <c r="CL4">
         <v>0</v>
@@ -4427,7 +4427,7 @@
         <v>0</v>
       </c>
       <c r="EL4">
-        <v>10.6833861</v>
+        <v>0</v>
       </c>
       <c r="EM4">
         <v>0</v>
@@ -4460,13 +4460,13 @@
         <v>911.5025888</v>
       </c>
       <c r="EW4">
-        <v>8.216838600000001</v>
+        <v>0</v>
       </c>
       <c r="EX4">
         <v>0</v>
       </c>
       <c r="EY4">
-        <v>23.2048488</v>
+        <v>0</v>
       </c>
       <c r="EZ4">
         <v>0</v>
@@ -4562,7 +4562,7 @@
         <v>0</v>
       </c>
       <c r="GE4">
-        <v>3.839793</v>
+        <v>0</v>
       </c>
       <c r="GF4">
         <v>0</v>
@@ -4715,7 +4715,7 @@
         <v>0</v>
       </c>
       <c r="ID4">
-        <v>220.0960766</v>
+        <v>0</v>
       </c>
       <c r="IE4">
         <v>0</v>
@@ -4805,13 +4805,13 @@
         <v>45.7640414</v>
       </c>
       <c r="JH4">
-        <v>1.9593937</v>
+        <v>0</v>
       </c>
       <c r="JI4">
         <v>870.1915770000001</v>
       </c>
       <c r="JJ4">
-        <v>0.0090893</v>
+        <v>0</v>
       </c>
       <c r="JK4">
         <v>2.9927766</v>
@@ -4823,7 +4823,7 @@
         <v>0</v>
       </c>
       <c r="JN4">
-        <v>18.2978312</v>
+        <v>0</v>
       </c>
       <c r="JO4">
         <v>0</v>
@@ -4997,7 +4997,7 @@
         <v>465.540024</v>
       </c>
       <c r="LT4">
-        <v>6.9185459</v>
+        <v>0</v>
       </c>
       <c r="LU4">
         <v>0</v>
@@ -5353,7 +5353,7 @@
         <v>0</v>
       </c>
       <c r="AU5">
-        <v>2.1749282</v>
+        <v>0</v>
       </c>
       <c r="AV5">
         <v>0</v>
@@ -5677,7 +5677,7 @@
         <v>0</v>
       </c>
       <c r="EY5">
-        <v>18.3159372</v>
+        <v>0</v>
       </c>
       <c r="EZ5">
         <v>0</v>
@@ -5950,7 +5950,7 @@
         <v>25.2251088</v>
       </c>
       <c r="IL5">
-        <v>0.8440097</v>
+        <v>0</v>
       </c>
       <c r="IM5">
         <v>0</v>
@@ -6025,7 +6025,7 @@
         <v>0</v>
       </c>
       <c r="JK5">
-        <v>1.8570839</v>
+        <v>0</v>
       </c>
       <c r="JL5">
         <v>0</v>
@@ -6034,7 +6034,7 @@
         <v>0</v>
       </c>
       <c r="JN5">
-        <v>13.8720114</v>
+        <v>0</v>
       </c>
       <c r="JO5">
         <v>0</v>
@@ -6214,7 +6214,7 @@
         <v>0</v>
       </c>
       <c r="LV5">
-        <v>1.7568004</v>
+        <v>0</v>
       </c>
       <c r="LW5">
         <v>0</v>
@@ -6564,7 +6564,7 @@
         <v>0</v>
       </c>
       <c r="AU6">
-        <v>2.9653355</v>
+        <v>0</v>
       </c>
       <c r="AV6">
         <v>0</v>
@@ -6702,7 +6702,7 @@
         <v>0</v>
       </c>
       <c r="CO6">
-        <v>8.531348100000001</v>
+        <v>0</v>
       </c>
       <c r="CP6">
         <v>0</v>
@@ -6720,7 +6720,7 @@
         <v>0</v>
       </c>
       <c r="CU6">
-        <v>2.7797793</v>
+        <v>0</v>
       </c>
       <c r="CV6">
         <v>0</v>
@@ -6771,7 +6771,7 @@
         <v>6.2569423</v>
       </c>
       <c r="DL6">
-        <v>4.5394182</v>
+        <v>0</v>
       </c>
       <c r="DM6">
         <v>0</v>
@@ -6864,7 +6864,7 @@
         <v>0</v>
       </c>
       <c r="EQ6">
-        <v>1.4264393</v>
+        <v>0</v>
       </c>
       <c r="ER6">
         <v>0</v>
@@ -6888,7 +6888,7 @@
         <v>0</v>
       </c>
       <c r="EY6">
-        <v>20.560764</v>
+        <v>0</v>
       </c>
       <c r="EZ6">
         <v>0</v>
@@ -7137,7 +7137,7 @@
         <v>0</v>
       </c>
       <c r="ID6">
-        <v>6.8597202</v>
+        <v>0</v>
       </c>
       <c r="IE6">
         <v>0</v>
@@ -7233,7 +7233,7 @@
         <v>858.5620805</v>
       </c>
       <c r="JJ6">
-        <v>5.1935709</v>
+        <v>0</v>
       </c>
       <c r="JK6">
         <v>0</v>
@@ -7245,7 +7245,7 @@
         <v>0</v>
       </c>
       <c r="JN6">
-        <v>13.3868042</v>
+        <v>0</v>
       </c>
       <c r="JO6">
         <v>0</v>
@@ -7506,7 +7506,7 @@
         <v>0</v>
       </c>
       <c r="MW6">
-        <v>11.4953993</v>
+        <v>0</v>
       </c>
       <c r="MX6">
         <v>1540.8769037</v>
@@ -8099,7 +8099,7 @@
         <v>0</v>
       </c>
       <c r="EY7">
-        <v>26.0023937</v>
+        <v>0</v>
       </c>
       <c r="EZ7">
         <v>0</v>
@@ -8336,7 +8336,7 @@
         <v>0</v>
       </c>
       <c r="HZ7">
-        <v>5.9574732</v>
+        <v>0</v>
       </c>
       <c r="IA7">
         <v>0</v>
@@ -8372,7 +8372,7 @@
         <v>26.9620653</v>
       </c>
       <c r="IL7">
-        <v>1.9898404</v>
+        <v>0</v>
       </c>
       <c r="IM7">
         <v>0</v>
@@ -8405,7 +8405,7 @@
         <v>0</v>
       </c>
       <c r="IW7">
-        <v>1.9036426</v>
+        <v>0</v>
       </c>
       <c r="IX7">
         <v>0</v>
@@ -8456,7 +8456,7 @@
         <v>0</v>
       </c>
       <c r="JN7">
-        <v>16.4431918</v>
+        <v>0</v>
       </c>
       <c r="JO7">
         <v>0</v>
@@ -8636,7 +8636,7 @@
         <v>0</v>
       </c>
       <c r="LV7">
-        <v>4.9592768</v>
+        <v>0</v>
       </c>
       <c r="LW7">
         <v>0</v>
@@ -8986,7 +8986,7 @@
         <v>0</v>
       </c>
       <c r="AU8">
-        <v>1.9882591</v>
+        <v>0</v>
       </c>
       <c r="AV8">
         <v>0</v>
@@ -9046,10 +9046,10 @@
         <v>0</v>
       </c>
       <c r="BO8">
-        <v>8.6117601</v>
+        <v>0</v>
       </c>
       <c r="BP8">
-        <v>0.2632367</v>
+        <v>0</v>
       </c>
       <c r="BQ8">
         <v>0</v>
@@ -9082,7 +9082,7 @@
         <v>0</v>
       </c>
       <c r="CA8">
-        <v>55.8668028</v>
+        <v>0</v>
       </c>
       <c r="CB8">
         <v>0</v>
@@ -9142,7 +9142,7 @@
         <v>0</v>
       </c>
       <c r="CU8">
-        <v>4.6714055</v>
+        <v>0</v>
       </c>
       <c r="CV8">
         <v>0</v>
@@ -9310,7 +9310,7 @@
         <v>0</v>
       </c>
       <c r="EY8">
-        <v>62.8693714</v>
+        <v>0</v>
       </c>
       <c r="EZ8">
         <v>0</v>
@@ -9355,7 +9355,7 @@
         <v>0</v>
       </c>
       <c r="FN8">
-        <v>2.3340255</v>
+        <v>0</v>
       </c>
       <c r="FO8">
         <v>0</v>
@@ -9421,7 +9421,7 @@
         <v>0</v>
       </c>
       <c r="GJ8">
-        <v>4.3818756</v>
+        <v>0</v>
       </c>
       <c r="GK8">
         <v>0</v>
@@ -9487,7 +9487,7 @@
         <v>0</v>
       </c>
       <c r="HF8">
-        <v>3.330964</v>
+        <v>0</v>
       </c>
       <c r="HG8">
         <v>0</v>
@@ -9496,7 +9496,7 @@
         <v>0</v>
       </c>
       <c r="HI8">
-        <v>6.3756699</v>
+        <v>0</v>
       </c>
       <c r="HJ8">
         <v>0</v>
@@ -9511,7 +9511,7 @@
         <v>0</v>
       </c>
       <c r="HN8">
-        <v>6.7705771</v>
+        <v>0</v>
       </c>
       <c r="HO8">
         <v>0</v>
@@ -9616,7 +9616,7 @@
         <v>0</v>
       </c>
       <c r="IW8">
-        <v>7.0521818</v>
+        <v>0</v>
       </c>
       <c r="IX8">
         <v>0</v>
@@ -9628,7 +9628,7 @@
         <v>0</v>
       </c>
       <c r="JA8">
-        <v>1.912177</v>
+        <v>0</v>
       </c>
       <c r="JB8">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="JD8">
-        <v>5.9718158</v>
+        <v>0</v>
       </c>
       <c r="JE8">
         <v>0</v>
@@ -9667,7 +9667,7 @@
         <v>0</v>
       </c>
       <c r="JN8">
-        <v>38.0238078</v>
+        <v>0</v>
       </c>
       <c r="JO8">
         <v>0</v>
@@ -9802,7 +9802,7 @@
         <v>0</v>
       </c>
       <c r="LG8">
-        <v>24.6640409</v>
+        <v>0</v>
       </c>
       <c r="LH8">
         <v>0</v>
@@ -9847,7 +9847,7 @@
         <v>0</v>
       </c>
       <c r="LV8">
-        <v>2.9832106</v>
+        <v>0</v>
       </c>
       <c r="LW8">
         <v>0</v>
@@ -10260,7 +10260,7 @@
         <v>0</v>
       </c>
       <c r="BP9">
-        <v>2.0081579</v>
+        <v>0</v>
       </c>
       <c r="BQ9">
         <v>0</v>
@@ -10521,7 +10521,7 @@
         <v>0</v>
       </c>
       <c r="EY9">
-        <v>94.0542623</v>
+        <v>0</v>
       </c>
       <c r="EZ9">
         <v>0</v>
@@ -10698,7 +10698,7 @@
         <v>0</v>
       </c>
       <c r="HF9">
-        <v>2.6344068</v>
+        <v>0</v>
       </c>
       <c r="HG9">
         <v>0</v>
@@ -10866,7 +10866,7 @@
         <v>701.8313213</v>
       </c>
       <c r="JJ9">
-        <v>0.3846631</v>
+        <v>0</v>
       </c>
       <c r="JK9">
         <v>0</v>
@@ -10878,7 +10878,7 @@
         <v>0</v>
       </c>
       <c r="JN9">
-        <v>86.5687578</v>
+        <v>0</v>
       </c>
       <c r="JO9">
         <v>0</v>
@@ -11345,7 +11345,7 @@
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>4.8324386</v>
+        <v>0</v>
       </c>
       <c r="AA10">
         <v>0</v>
@@ -11471,7 +11471,7 @@
         <v>1.4794603</v>
       </c>
       <c r="BP10">
-        <v>2.3536832</v>
+        <v>0</v>
       </c>
       <c r="BQ10">
         <v>0</v>
@@ -11534,7 +11534,7 @@
         <v>0</v>
       </c>
       <c r="CK10">
-        <v>1.9497811</v>
+        <v>0</v>
       </c>
       <c r="CL10">
         <v>0</v>
@@ -11657,7 +11657,7 @@
         <v>0</v>
       </c>
       <c r="DZ10">
-        <v>6.447284</v>
+        <v>0</v>
       </c>
       <c r="EA10">
         <v>0</v>
@@ -11732,7 +11732,7 @@
         <v>0</v>
       </c>
       <c r="EY10">
-        <v>115.5134625</v>
+        <v>0</v>
       </c>
       <c r="EZ10">
         <v>0</v>
@@ -11792,7 +11792,7 @@
         <v>0</v>
       </c>
       <c r="FS10">
-        <v>3.5283277</v>
+        <v>0</v>
       </c>
       <c r="FT10">
         <v>4.1087471</v>
@@ -11828,7 +11828,7 @@
         <v>0</v>
       </c>
       <c r="GE10">
-        <v>7.4338735</v>
+        <v>0</v>
       </c>
       <c r="GF10">
         <v>0</v>
@@ -11933,7 +11933,7 @@
         <v>0</v>
       </c>
       <c r="HN10">
-        <v>6.7952603</v>
+        <v>0</v>
       </c>
       <c r="HO10">
         <v>0</v>
@@ -12089,7 +12089,7 @@
         <v>0</v>
       </c>
       <c r="JN10">
-        <v>175.9391849</v>
+        <v>0</v>
       </c>
       <c r="JO10">
         <v>0</v>
@@ -12269,7 +12269,7 @@
         <v>0</v>
       </c>
       <c r="LV10">
-        <v>2.339139</v>
+        <v>0</v>
       </c>
       <c r="LW10">
         <v>0</v>
@@ -12496,7 +12496,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>202.7996149</v>
+        <v>0</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -12619,7 +12619,7 @@
         <v>0</v>
       </c>
       <c r="AU11">
-        <v>5.2587551</v>
+        <v>0</v>
       </c>
       <c r="AV11">
         <v>0</v>
@@ -12682,7 +12682,7 @@
         <v>0</v>
       </c>
       <c r="BP11">
-        <v>2.1103964</v>
+        <v>0</v>
       </c>
       <c r="BQ11">
         <v>0</v>
@@ -12943,7 +12943,7 @@
         <v>0</v>
       </c>
       <c r="EY11">
-        <v>143.9427681</v>
+        <v>0</v>
       </c>
       <c r="EZ11">
         <v>0</v>
@@ -13120,7 +13120,7 @@
         <v>0</v>
       </c>
       <c r="HF11">
-        <v>1.8203192</v>
+        <v>0</v>
       </c>
       <c r="HG11">
         <v>0</v>
@@ -13300,7 +13300,7 @@
         <v>0</v>
       </c>
       <c r="JN11">
-        <v>256.5609816</v>
+        <v>0</v>
       </c>
       <c r="JO11">
         <v>0</v>
@@ -13480,7 +13480,7 @@
         <v>0</v>
       </c>
       <c r="LV11">
-        <v>6.0903416</v>
+        <v>0</v>
       </c>
       <c r="LW11">
         <v>0</v>
@@ -13707,7 +13707,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>115.6557345</v>
+        <v>0</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -14031,13 +14031,13 @@
         <v>0</v>
       </c>
       <c r="DJ12">
-        <v>3.4786176</v>
+        <v>0</v>
       </c>
       <c r="DK12">
         <v>14.0941344</v>
       </c>
       <c r="DL12">
-        <v>3.7422258</v>
+        <v>0</v>
       </c>
       <c r="DM12">
         <v>0</v>
@@ -14154,7 +14154,7 @@
         <v>0</v>
       </c>
       <c r="EY12">
-        <v>182.9934662</v>
+        <v>0</v>
       </c>
       <c r="EZ12">
         <v>0</v>
@@ -14163,7 +14163,7 @@
         <v>0</v>
       </c>
       <c r="FB12">
-        <v>10.0041671</v>
+        <v>0</v>
       </c>
       <c r="FC12">
         <v>0</v>
@@ -14208,7 +14208,7 @@
         <v>0</v>
       </c>
       <c r="FQ12">
-        <v>6.1833189</v>
+        <v>0</v>
       </c>
       <c r="FR12">
         <v>0</v>
@@ -14250,7 +14250,7 @@
         <v>0</v>
       </c>
       <c r="GE12">
-        <v>1.811755</v>
+        <v>0</v>
       </c>
       <c r="GF12">
         <v>0</v>
@@ -14265,7 +14265,7 @@
         <v>0</v>
       </c>
       <c r="GJ12">
-        <v>5.6366049</v>
+        <v>0</v>
       </c>
       <c r="GK12">
         <v>0</v>
@@ -14298,7 +14298,7 @@
         <v>0</v>
       </c>
       <c r="GU12">
-        <v>7.8156432</v>
+        <v>0</v>
       </c>
       <c r="GV12">
         <v>0</v>
@@ -14331,7 +14331,7 @@
         <v>0</v>
       </c>
       <c r="HF12">
-        <v>0.5981208</v>
+        <v>0</v>
       </c>
       <c r="HG12">
         <v>0</v>
@@ -14403,7 +14403,7 @@
         <v>0</v>
       </c>
       <c r="ID12">
-        <v>7.4743399</v>
+        <v>0</v>
       </c>
       <c r="IE12">
         <v>0</v>
@@ -14460,7 +14460,7 @@
         <v>0</v>
       </c>
       <c r="IW12">
-        <v>5.9328158</v>
+        <v>0</v>
       </c>
       <c r="IX12">
         <v>0</v>
@@ -14499,7 +14499,7 @@
         <v>693.5204115</v>
       </c>
       <c r="JJ12">
-        <v>4.4365885</v>
+        <v>0</v>
       </c>
       <c r="JK12">
         <v>0</v>
@@ -14511,7 +14511,7 @@
         <v>0</v>
       </c>
       <c r="JN12">
-        <v>282.9271372</v>
+        <v>0</v>
       </c>
       <c r="JO12">
         <v>0</v>
@@ -14691,7 +14691,7 @@
         <v>0</v>
       </c>
       <c r="LV12">
-        <v>3.7731827</v>
+        <v>0</v>
       </c>
       <c r="LW12">
         <v>0</v>
@@ -14772,7 +14772,7 @@
         <v>0</v>
       </c>
       <c r="MW12">
-        <v>3.656461</v>
+        <v>0</v>
       </c>
       <c r="MX12">
         <v>1696.404309</v>
@@ -14868,7 +14868,7 @@
         <v>0</v>
       </c>
       <c r="OC12">
-        <v>4.4391968</v>
+        <v>0</v>
       </c>
       <c r="OD12">
         <v>0</v>
@@ -14918,7 +14918,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>135.7614576</v>
+        <v>0</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -15290,7 +15290,7 @@
         <v>0</v>
       </c>
       <c r="DZ13">
-        <v>2.8529875</v>
+        <v>0</v>
       </c>
       <c r="EA13">
         <v>0</v>
@@ -15365,7 +15365,7 @@
         <v>0</v>
       </c>
       <c r="EY13">
-        <v>220.474672</v>
+        <v>0</v>
       </c>
       <c r="EZ13">
         <v>0</v>
@@ -15662,7 +15662,7 @@
         <v>0</v>
       </c>
       <c r="IT13">
-        <v>4.787863</v>
+        <v>0</v>
       </c>
       <c r="IU13">
         <v>0</v>
@@ -15683,7 +15683,7 @@
         <v>0</v>
       </c>
       <c r="JA13">
-        <v>2.3558328</v>
+        <v>0</v>
       </c>
       <c r="JB13">
         <v>0</v>
@@ -15722,7 +15722,7 @@
         <v>0</v>
       </c>
       <c r="JN13">
-        <v>269.9555951</v>
+        <v>0</v>
       </c>
       <c r="JO13">
         <v>0</v>
@@ -15902,7 +15902,7 @@
         <v>0</v>
       </c>
       <c r="LV13">
-        <v>3.0976974</v>
+        <v>0</v>
       </c>
       <c r="LW13">
         <v>0</v>
@@ -16129,7 +16129,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>134.4396869</v>
+        <v>0</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -16189,7 +16189,7 @@
         <v>0</v>
       </c>
       <c r="Z14">
-        <v>0.9764993</v>
+        <v>0</v>
       </c>
       <c r="AA14">
         <v>0</v>
@@ -16315,7 +16315,7 @@
         <v>4.0657459</v>
       </c>
       <c r="BP14">
-        <v>1.5695996</v>
+        <v>0</v>
       </c>
       <c r="BQ14">
         <v>0</v>
@@ -16342,7 +16342,7 @@
         <v>7.145927</v>
       </c>
       <c r="BY14">
-        <v>0.6004319</v>
+        <v>0</v>
       </c>
       <c r="BZ14">
         <v>0</v>
@@ -16408,7 +16408,7 @@
         <v>0</v>
       </c>
       <c r="CU14">
-        <v>4.155515</v>
+        <v>0</v>
       </c>
       <c r="CV14">
         <v>0</v>
@@ -16459,7 +16459,7 @@
         <v>3.530217</v>
       </c>
       <c r="DL14">
-        <v>7.4542142</v>
+        <v>0</v>
       </c>
       <c r="DM14">
         <v>0</v>
@@ -16501,7 +16501,7 @@
         <v>0</v>
       </c>
       <c r="DZ14">
-        <v>1.6745506</v>
+        <v>0</v>
       </c>
       <c r="EA14">
         <v>0</v>
@@ -16570,13 +16570,13 @@
         <v>779.4248540999999</v>
       </c>
       <c r="EW14">
-        <v>6.6669631</v>
+        <v>0</v>
       </c>
       <c r="EX14">
         <v>0</v>
       </c>
       <c r="EY14">
-        <v>208.8927964</v>
+        <v>0</v>
       </c>
       <c r="EZ14">
         <v>0</v>
@@ -16621,7 +16621,7 @@
         <v>0</v>
       </c>
       <c r="FN14">
-        <v>1.2943142</v>
+        <v>0</v>
       </c>
       <c r="FO14">
         <v>0</v>
@@ -16630,7 +16630,7 @@
         <v>0</v>
       </c>
       <c r="FQ14">
-        <v>2.7554375</v>
+        <v>0</v>
       </c>
       <c r="FR14">
         <v>0</v>
@@ -16687,7 +16687,7 @@
         <v>0</v>
       </c>
       <c r="GJ14">
-        <v>2.4485775</v>
+        <v>0</v>
       </c>
       <c r="GK14">
         <v>0</v>
@@ -16777,7 +16777,7 @@
         <v>0</v>
       </c>
       <c r="HN14">
-        <v>4.8169916</v>
+        <v>0</v>
       </c>
       <c r="HO14">
         <v>0</v>
@@ -16849,7 +16849,7 @@
         <v>62.0016547</v>
       </c>
       <c r="IL14">
-        <v>1.1429415</v>
+        <v>0</v>
       </c>
       <c r="IM14">
         <v>0</v>
@@ -16873,7 +16873,7 @@
         <v>0</v>
       </c>
       <c r="IT14">
-        <v>7.2404313</v>
+        <v>0</v>
       </c>
       <c r="IU14">
         <v>0</v>
@@ -16933,7 +16933,7 @@
         <v>0</v>
       </c>
       <c r="JN14">
-        <v>225.8994811</v>
+        <v>0</v>
       </c>
       <c r="JO14">
         <v>0</v>
@@ -17044,7 +17044,7 @@
         <v>0</v>
       </c>
       <c r="KY14">
-        <v>8.1176286</v>
+        <v>0</v>
       </c>
       <c r="KZ14">
         <v>0</v>
@@ -17113,7 +17113,7 @@
         <v>0</v>
       </c>
       <c r="LV14">
-        <v>1.5274481</v>
+        <v>0</v>
       </c>
       <c r="LW14">
         <v>0</v>
@@ -17340,7 +17340,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>156.6060175</v>
+        <v>0</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -17487,7 +17487,7 @@
         <v>0</v>
       </c>
       <c r="BC15">
-        <v>3.8056034</v>
+        <v>0</v>
       </c>
       <c r="BD15">
         <v>73.9210231</v>
@@ -17787,7 +17787,7 @@
         <v>0</v>
       </c>
       <c r="EY15">
-        <v>233.858406</v>
+        <v>0</v>
       </c>
       <c r="EZ15">
         <v>0</v>
@@ -18144,7 +18144,7 @@
         <v>0</v>
       </c>
       <c r="JN15">
-        <v>268.2934939</v>
+        <v>0</v>
       </c>
       <c r="JO15">
         <v>0</v>
@@ -18279,7 +18279,7 @@
         <v>0</v>
       </c>
       <c r="LG15">
-        <v>3.2389001</v>
+        <v>0</v>
       </c>
       <c r="LH15">
         <v>0</v>
@@ -18324,7 +18324,7 @@
         <v>0</v>
       </c>
       <c r="LV15">
-        <v>2.5716091</v>
+        <v>0</v>
       </c>
       <c r="LW15">
         <v>0</v>
@@ -18551,7 +18551,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>153.1203715</v>
+        <v>0</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -18611,7 +18611,7 @@
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>4.0760397</v>
+        <v>0</v>
       </c>
       <c r="AA16">
         <v>0</v>
@@ -18698,7 +18698,7 @@
         <v>0</v>
       </c>
       <c r="BC16">
-        <v>0.0478762</v>
+        <v>0</v>
       </c>
       <c r="BD16">
         <v>88.8755237</v>
@@ -18830,7 +18830,7 @@
         <v>0</v>
       </c>
       <c r="CU16">
-        <v>2.6196366</v>
+        <v>0</v>
       </c>
       <c r="CV16">
         <v>0</v>
@@ -18923,7 +18923,7 @@
         <v>0</v>
       </c>
       <c r="DZ16">
-        <v>3.6118526</v>
+        <v>0</v>
       </c>
       <c r="EA16">
         <v>0</v>
@@ -18959,7 +18959,7 @@
         <v>7.4641893</v>
       </c>
       <c r="EL16">
-        <v>9.466895600000001</v>
+        <v>0</v>
       </c>
       <c r="EM16">
         <v>0</v>
@@ -18998,7 +18998,7 @@
         <v>0</v>
       </c>
       <c r="EY16">
-        <v>158.0150273</v>
+        <v>0</v>
       </c>
       <c r="EZ16">
         <v>0</v>
@@ -19052,13 +19052,13 @@
         <v>0</v>
       </c>
       <c r="FQ16">
-        <v>8.5199277</v>
+        <v>0</v>
       </c>
       <c r="FR16">
         <v>0</v>
       </c>
       <c r="FS16">
-        <v>1.3157327</v>
+        <v>0</v>
       </c>
       <c r="FT16">
         <v>0</v>
@@ -19127,7 +19127,7 @@
         <v>0</v>
       </c>
       <c r="GP16">
-        <v>4.9548334</v>
+        <v>0</v>
       </c>
       <c r="GQ16">
         <v>0</v>
@@ -19175,7 +19175,7 @@
         <v>0</v>
       </c>
       <c r="HF16">
-        <v>2.241022</v>
+        <v>0</v>
       </c>
       <c r="HG16">
         <v>0</v>
@@ -19184,7 +19184,7 @@
         <v>0</v>
       </c>
       <c r="HI16">
-        <v>2.3097162</v>
+        <v>0</v>
       </c>
       <c r="HJ16">
         <v>0</v>
@@ -19199,7 +19199,7 @@
         <v>0</v>
       </c>
       <c r="HN16">
-        <v>6.3392846</v>
+        <v>0</v>
       </c>
       <c r="HO16">
         <v>0</v>
@@ -19355,7 +19355,7 @@
         <v>0</v>
       </c>
       <c r="JN16">
-        <v>338.9934343</v>
+        <v>0</v>
       </c>
       <c r="JO16">
         <v>0</v>
@@ -19457,7 +19457,7 @@
         <v>4201.4947528</v>
       </c>
       <c r="KV16">
-        <v>3.1689849</v>
+        <v>0</v>
       </c>
       <c r="KW16">
         <v>1090.9216185</v>
@@ -19508,7 +19508,7 @@
         <v>0</v>
       </c>
       <c r="LM16">
-        <v>15.7977591</v>
+        <v>0</v>
       </c>
       <c r="LN16">
         <v>0</v>
@@ -19535,7 +19535,7 @@
         <v>0</v>
       </c>
       <c r="LV16">
-        <v>4.7474191</v>
+        <v>0</v>
       </c>
       <c r="LW16">
         <v>0</v>
@@ -19550,7 +19550,7 @@
         <v>0</v>
       </c>
       <c r="MA16">
-        <v>5.0504473</v>
+        <v>0</v>
       </c>
       <c r="MB16">
         <v>0</v>
@@ -19762,7 +19762,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>179.7217569</v>
+        <v>0</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -20041,7 +20041,7 @@
         <v>0</v>
       </c>
       <c r="CU17">
-        <v>2.157799</v>
+        <v>0</v>
       </c>
       <c r="CV17">
         <v>0</v>
@@ -20134,7 +20134,7 @@
         <v>0</v>
       </c>
       <c r="DZ17">
-        <v>4.7344583</v>
+        <v>0</v>
       </c>
       <c r="EA17">
         <v>0</v>
@@ -20185,7 +20185,7 @@
         <v>0</v>
       </c>
       <c r="EQ17">
-        <v>17.4212017</v>
+        <v>0</v>
       </c>
       <c r="ER17">
         <v>0</v>
@@ -20209,7 +20209,7 @@
         <v>0</v>
       </c>
       <c r="EY17">
-        <v>196.7613919</v>
+        <v>0</v>
       </c>
       <c r="EZ17">
         <v>0</v>
@@ -20386,7 +20386,7 @@
         <v>0</v>
       </c>
       <c r="HF17">
-        <v>1.8719001</v>
+        <v>0</v>
       </c>
       <c r="HG17">
         <v>0</v>
@@ -20560,13 +20560,13 @@
         <v>0</v>
       </c>
       <c r="JL17">
-        <v>17.0782656</v>
+        <v>0</v>
       </c>
       <c r="JM17">
         <v>0</v>
       </c>
       <c r="JN17">
-        <v>553.4498224</v>
+        <v>0</v>
       </c>
       <c r="JO17">
         <v>0</v>
@@ -20668,7 +20668,7 @@
         <v>610.152514</v>
       </c>
       <c r="KV17">
-        <v>1.646632</v>
+        <v>0</v>
       </c>
       <c r="KW17">
         <v>583.2578064</v>
@@ -20746,7 +20746,7 @@
         <v>0</v>
       </c>
       <c r="LV17">
-        <v>2.5575315</v>
+        <v>0</v>
       </c>
       <c r="LW17">
         <v>0</v>
@@ -20973,7 +20973,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>173.0647608</v>
+        <v>0</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -21183,7 +21183,7 @@
         <v>45.9191207</v>
       </c>
       <c r="BX18">
-        <v>8.706009099999999</v>
+        <v>0</v>
       </c>
       <c r="BY18">
         <v>0</v>
@@ -21345,7 +21345,7 @@
         <v>0</v>
       </c>
       <c r="DZ18">
-        <v>3.3121959</v>
+        <v>0</v>
       </c>
       <c r="EA18">
         <v>0</v>
@@ -21381,7 +21381,7 @@
         <v>11.1077407</v>
       </c>
       <c r="EL18">
-        <v>12.262311</v>
+        <v>0</v>
       </c>
       <c r="EM18">
         <v>0</v>
@@ -21396,7 +21396,7 @@
         <v>0</v>
       </c>
       <c r="EQ18">
-        <v>3.1128197</v>
+        <v>0</v>
       </c>
       <c r="ER18">
         <v>0</v>
@@ -21420,7 +21420,7 @@
         <v>0</v>
       </c>
       <c r="EY18">
-        <v>241.7893464</v>
+        <v>0</v>
       </c>
       <c r="EZ18">
         <v>0</v>
@@ -21480,7 +21480,7 @@
         <v>0</v>
       </c>
       <c r="FS18">
-        <v>4.4390659</v>
+        <v>0</v>
       </c>
       <c r="FT18">
         <v>1.7424242</v>
@@ -21549,7 +21549,7 @@
         <v>0</v>
       </c>
       <c r="GP18">
-        <v>3.939153</v>
+        <v>0</v>
       </c>
       <c r="GQ18">
         <v>0</v>
@@ -21588,7 +21588,7 @@
         <v>0</v>
       </c>
       <c r="HC18">
-        <v>304.8427291</v>
+        <v>0</v>
       </c>
       <c r="HD18">
         <v>0</v>
@@ -21597,7 +21597,7 @@
         <v>0</v>
       </c>
       <c r="HF18">
-        <v>0.6153271</v>
+        <v>0</v>
       </c>
       <c r="HG18">
         <v>0</v>
@@ -21675,7 +21675,7 @@
         <v>0</v>
       </c>
       <c r="IF18">
-        <v>1.2746394</v>
+        <v>0</v>
       </c>
       <c r="IG18">
         <v>0</v>
@@ -21771,13 +21771,13 @@
         <v>0</v>
       </c>
       <c r="JL18">
-        <v>6.5871894</v>
+        <v>0</v>
       </c>
       <c r="JM18">
         <v>0</v>
       </c>
       <c r="JN18">
-        <v>485.5653793</v>
+        <v>0</v>
       </c>
       <c r="JO18">
         <v>0</v>
@@ -21798,7 +21798,7 @@
         <v>0</v>
       </c>
       <c r="JU18">
-        <v>1.9126989</v>
+        <v>0</v>
       </c>
       <c r="JV18">
         <v>0</v>
@@ -21957,7 +21957,7 @@
         <v>0</v>
       </c>
       <c r="LV18">
-        <v>6.7172799</v>
+        <v>0</v>
       </c>
       <c r="LW18">
         <v>0</v>
@@ -21972,7 +21972,7 @@
         <v>0</v>
       </c>
       <c r="MA18">
-        <v>6.6874254</v>
+        <v>0</v>
       </c>
       <c r="MB18">
         <v>0</v>
@@ -22184,7 +22184,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>161.8591345</v>
+        <v>0</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -22397,7 +22397,7 @@
         <v>0</v>
       </c>
       <c r="BY19">
-        <v>0.7214844</v>
+        <v>0</v>
       </c>
       <c r="BZ19">
         <v>0</v>
@@ -22427,7 +22427,7 @@
         <v>0</v>
       </c>
       <c r="CI19">
-        <v>9.132266100000001</v>
+        <v>0</v>
       </c>
       <c r="CJ19">
         <v>0</v>
@@ -22556,7 +22556,7 @@
         <v>0</v>
       </c>
       <c r="DZ19">
-        <v>2.5293336</v>
+        <v>0</v>
       </c>
       <c r="EA19">
         <v>0</v>
@@ -22607,7 +22607,7 @@
         <v>0</v>
       </c>
       <c r="EQ19">
-        <v>0.2308119</v>
+        <v>0</v>
       </c>
       <c r="ER19">
         <v>0</v>
@@ -22631,7 +22631,7 @@
         <v>0</v>
       </c>
       <c r="EY19">
-        <v>266.3446762</v>
+        <v>0</v>
       </c>
       <c r="EZ19">
         <v>0</v>
@@ -22988,7 +22988,7 @@
         <v>0</v>
       </c>
       <c r="JN19">
-        <v>457.7471915</v>
+        <v>0</v>
       </c>
       <c r="JO19">
         <v>0</v>
@@ -23168,7 +23168,7 @@
         <v>0</v>
       </c>
       <c r="LV19">
-        <v>2.2323436</v>
+        <v>0</v>
       </c>
       <c r="LW19">
         <v>18.1569574</v>
@@ -23183,7 +23183,7 @@
         <v>0</v>
       </c>
       <c r="MA19">
-        <v>2.4584405</v>
+        <v>0</v>
       </c>
       <c r="MB19">
         <v>0</v>
@@ -23354,7 +23354,7 @@
         <v>9.4878202</v>
       </c>
       <c r="OF19">
-        <v>1733.4795628</v>
+        <v>0</v>
       </c>
       <c r="OG19">
         <v>0</v>
@@ -23395,7 +23395,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>162.5024866</v>
+        <v>0</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -23455,7 +23455,7 @@
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>4.1561125</v>
+        <v>0</v>
       </c>
       <c r="AA20">
         <v>0</v>
@@ -23581,7 +23581,7 @@
         <v>0</v>
       </c>
       <c r="BP20">
-        <v>2.2820852</v>
+        <v>0</v>
       </c>
       <c r="BQ20">
         <v>0</v>
@@ -23710,7 +23710,7 @@
         <v>0</v>
       </c>
       <c r="DG20">
-        <v>3.9995219</v>
+        <v>0</v>
       </c>
       <c r="DH20">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="DJ20">
-        <v>2.3006749</v>
+        <v>0</v>
       </c>
       <c r="DK20">
         <v>8.496464100000001</v>
@@ -23794,7 +23794,7 @@
         <v>0</v>
       </c>
       <c r="EI20">
-        <v>6.1634372</v>
+        <v>0</v>
       </c>
       <c r="EJ20">
         <v>30.8527542</v>
@@ -23827,7 +23827,7 @@
         <v>0</v>
       </c>
       <c r="ET20">
-        <v>0.5835785</v>
+        <v>0</v>
       </c>
       <c r="EU20">
         <v>6.8288309</v>
@@ -23836,13 +23836,13 @@
         <v>768.2943009000001</v>
       </c>
       <c r="EW20">
-        <v>1.7227514</v>
+        <v>0</v>
       </c>
       <c r="EX20">
         <v>0</v>
       </c>
       <c r="EY20">
-        <v>350.7412314</v>
+        <v>0</v>
       </c>
       <c r="EZ20">
         <v>0</v>
@@ -23905,7 +23905,7 @@
         <v>3.8411276</v>
       </c>
       <c r="FT20">
-        <v>7.8139939</v>
+        <v>0</v>
       </c>
       <c r="FU20">
         <v>0</v>
@@ -23938,7 +23938,7 @@
         <v>0</v>
       </c>
       <c r="GE20">
-        <v>4.675563</v>
+        <v>0</v>
       </c>
       <c r="GF20">
         <v>0</v>
@@ -24010,7 +24010,7 @@
         <v>0</v>
       </c>
       <c r="HC20">
-        <v>813.1748801</v>
+        <v>0</v>
       </c>
       <c r="HD20">
         <v>0</v>
@@ -24043,7 +24043,7 @@
         <v>0</v>
       </c>
       <c r="HN20">
-        <v>8.1236616</v>
+        <v>0</v>
       </c>
       <c r="HO20">
         <v>0</v>
@@ -24091,7 +24091,7 @@
         <v>0</v>
       </c>
       <c r="ID20">
-        <v>7.5146433</v>
+        <v>0</v>
       </c>
       <c r="IE20">
         <v>0</v>
@@ -24199,7 +24199,7 @@
         <v>0</v>
       </c>
       <c r="JN20">
-        <v>358.2738031</v>
+        <v>0</v>
       </c>
       <c r="JO20">
         <v>0</v>
@@ -24606,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>146.145558</v>
+        <v>0</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -24702,7 +24702,7 @@
         <v>0</v>
       </c>
       <c r="AL21">
-        <v>2.8590878</v>
+        <v>0</v>
       </c>
       <c r="AM21">
         <v>0</v>
@@ -24753,7 +24753,7 @@
         <v>0</v>
       </c>
       <c r="BC21">
-        <v>1.5930351</v>
+        <v>0</v>
       </c>
       <c r="BD21">
         <v>85.2703746</v>
@@ -24792,7 +24792,7 @@
         <v>0</v>
       </c>
       <c r="BP21">
-        <v>1.1588655</v>
+        <v>0</v>
       </c>
       <c r="BQ21">
         <v>0</v>
@@ -24819,7 +24819,7 @@
         <v>0</v>
       </c>
       <c r="BY21">
-        <v>3.4672818</v>
+        <v>0</v>
       </c>
       <c r="BZ21">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="CU21">
-        <v>2.7545118</v>
+        <v>0</v>
       </c>
       <c r="CV21">
         <v>0</v>
@@ -25038,7 +25038,7 @@
         <v>0</v>
       </c>
       <c r="ET21">
-        <v>6.38634</v>
+        <v>0</v>
       </c>
       <c r="EU21">
         <v>8.2289668</v>
@@ -25053,7 +25053,7 @@
         <v>0</v>
       </c>
       <c r="EY21">
-        <v>402.208468</v>
+        <v>0</v>
       </c>
       <c r="EZ21">
         <v>0</v>
@@ -25221,7 +25221,7 @@
         <v>0</v>
       </c>
       <c r="HC21">
-        <v>11.3522787</v>
+        <v>0</v>
       </c>
       <c r="HD21">
         <v>0</v>
@@ -25263,7 +25263,7 @@
         <v>0</v>
       </c>
       <c r="HQ21">
-        <v>0.5711185</v>
+        <v>0</v>
       </c>
       <c r="HR21">
         <v>0</v>
@@ -25410,7 +25410,7 @@
         <v>0</v>
       </c>
       <c r="JN21">
-        <v>304.0793001</v>
+        <v>0</v>
       </c>
       <c r="JO21">
         <v>0</v>
@@ -25590,7 +25590,7 @@
         <v>0</v>
       </c>
       <c r="LV21">
-        <v>5.2066176</v>
+        <v>0</v>
       </c>
       <c r="LW21">
         <v>0</v>
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="MA21">
-        <v>8.392899999999999</v>
+        <v>0</v>
       </c>
       <c r="MB21">
         <v>0</v>
@@ -25817,7 +25817,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>173.5311718</v>
+        <v>0</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -26060,13 +26060,13 @@
         <v>0</v>
       </c>
       <c r="CI22">
-        <v>4.8680303</v>
+        <v>0</v>
       </c>
       <c r="CJ22">
         <v>0</v>
       </c>
       <c r="CK22">
-        <v>2.2646384</v>
+        <v>0</v>
       </c>
       <c r="CL22">
         <v>0</v>
@@ -26189,7 +26189,7 @@
         <v>0</v>
       </c>
       <c r="DZ22">
-        <v>1.1041393</v>
+        <v>0</v>
       </c>
       <c r="EA22">
         <v>0</v>
@@ -26216,7 +26216,7 @@
         <v>0</v>
       </c>
       <c r="EI22">
-        <v>5.4177821</v>
+        <v>0</v>
       </c>
       <c r="EJ22">
         <v>11.7036242</v>
@@ -26240,7 +26240,7 @@
         <v>0</v>
       </c>
       <c r="EQ22">
-        <v>3.2806497</v>
+        <v>0</v>
       </c>
       <c r="ER22">
         <v>0</v>
@@ -26249,7 +26249,7 @@
         <v>0</v>
       </c>
       <c r="ET22">
-        <v>8.930759699999999</v>
+        <v>0</v>
       </c>
       <c r="EU22">
         <v>9.299970200000001</v>
@@ -26264,7 +26264,7 @@
         <v>0</v>
       </c>
       <c r="EY22">
-        <v>561.9118641</v>
+        <v>0</v>
       </c>
       <c r="EZ22">
         <v>0</v>
@@ -26273,7 +26273,7 @@
         <v>0</v>
       </c>
       <c r="FB22">
-        <v>6.1853359</v>
+        <v>0</v>
       </c>
       <c r="FC22">
         <v>0</v>
@@ -26324,7 +26324,7 @@
         <v>0</v>
       </c>
       <c r="FS22">
-        <v>7.1035129</v>
+        <v>0</v>
       </c>
       <c r="FT22">
         <v>2.3975777</v>
@@ -26375,7 +26375,7 @@
         <v>0</v>
       </c>
       <c r="GJ22">
-        <v>5.8091129</v>
+        <v>0</v>
       </c>
       <c r="GK22">
         <v>0</v>
@@ -26432,7 +26432,7 @@
         <v>0</v>
       </c>
       <c r="HC22">
-        <v>220.0441723</v>
+        <v>0</v>
       </c>
       <c r="HD22">
         <v>0</v>
@@ -26441,7 +26441,7 @@
         <v>0</v>
       </c>
       <c r="HF22">
-        <v>1.0877159</v>
+        <v>0</v>
       </c>
       <c r="HG22">
         <v>0</v>
@@ -26576,7 +26576,7 @@
         <v>0</v>
       </c>
       <c r="IY22">
-        <v>6.1711633</v>
+        <v>0</v>
       </c>
       <c r="IZ22">
         <v>0</v>
@@ -26621,7 +26621,7 @@
         <v>0</v>
       </c>
       <c r="JN22">
-        <v>223.8718075</v>
+        <v>0</v>
       </c>
       <c r="JO22">
         <v>0</v>
@@ -26642,7 +26642,7 @@
         <v>0</v>
       </c>
       <c r="JU22">
-        <v>1.2661974</v>
+        <v>0</v>
       </c>
       <c r="JV22">
         <v>0</v>
@@ -27028,7 +27028,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>187.2599791</v>
+        <v>0</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="AU23">
-        <v>3.0632767</v>
+        <v>0</v>
       </c>
       <c r="AV23">
         <v>0</v>
@@ -27355,7 +27355,7 @@
         <v>0</v>
       </c>
       <c r="DK23">
-        <v>11.471303</v>
+        <v>0</v>
       </c>
       <c r="DL23">
         <v>0</v>
@@ -27400,7 +27400,7 @@
         <v>0</v>
       </c>
       <c r="DZ23">
-        <v>5.6991901</v>
+        <v>0</v>
       </c>
       <c r="EA23">
         <v>0</v>
@@ -27451,7 +27451,7 @@
         <v>0</v>
       </c>
       <c r="EQ23">
-        <v>3.4412851</v>
+        <v>0</v>
       </c>
       <c r="ER23">
         <v>0</v>
@@ -27475,7 +27475,7 @@
         <v>0</v>
       </c>
       <c r="EY23">
-        <v>488.7011238</v>
+        <v>0</v>
       </c>
       <c r="EZ23">
         <v>0</v>
@@ -27748,7 +27748,7 @@
         <v>114.882757</v>
       </c>
       <c r="IL23">
-        <v>1.6842915</v>
+        <v>0</v>
       </c>
       <c r="IM23">
         <v>0</v>
@@ -27772,7 +27772,7 @@
         <v>0</v>
       </c>
       <c r="IT23">
-        <v>1.9978952</v>
+        <v>0</v>
       </c>
       <c r="IU23">
         <v>0</v>
@@ -27793,7 +27793,7 @@
         <v>0</v>
       </c>
       <c r="JA23">
-        <v>4.7780984</v>
+        <v>0</v>
       </c>
       <c r="JB23">
         <v>0</v>
@@ -27832,7 +27832,7 @@
         <v>0</v>
       </c>
       <c r="JN23">
-        <v>221.490494</v>
+        <v>0</v>
       </c>
       <c r="JO23">
         <v>0</v>
@@ -27910,7 +27910,7 @@
         <v>0</v>
       </c>
       <c r="KN23">
-        <v>1.3827915</v>
+        <v>0</v>
       </c>
       <c r="KO23">
         <v>0</v>
@@ -28027,7 +28027,7 @@
         <v>0</v>
       </c>
       <c r="MA23">
-        <v>8.731481</v>
+        <v>0</v>
       </c>
       <c r="MB23">
         <v>0</v>
@@ -28239,7 +28239,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>115.2151638</v>
+        <v>0</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -28299,7 +28299,7 @@
         <v>0</v>
       </c>
       <c r="Z24">
-        <v>1.7316655</v>
+        <v>0</v>
       </c>
       <c r="AA24">
         <v>0</v>
@@ -28335,7 +28335,7 @@
         <v>0</v>
       </c>
       <c r="AL24">
-        <v>3.5638444</v>
+        <v>0</v>
       </c>
       <c r="AM24">
         <v>0</v>
@@ -28422,10 +28422,10 @@
         <v>0</v>
       </c>
       <c r="BO24">
-        <v>8.4285762</v>
+        <v>0</v>
       </c>
       <c r="BP24">
-        <v>5.010914</v>
+        <v>0</v>
       </c>
       <c r="BQ24">
         <v>0</v>
@@ -28482,7 +28482,7 @@
         <v>0</v>
       </c>
       <c r="CI24">
-        <v>6.4987476</v>
+        <v>0</v>
       </c>
       <c r="CJ24">
         <v>0</v>
@@ -28554,7 +28554,7 @@
         <v>0</v>
       </c>
       <c r="DG24">
-        <v>3.0575615</v>
+        <v>0</v>
       </c>
       <c r="DH24">
         <v>0</v>
@@ -28686,7 +28686,7 @@
         <v>0</v>
       </c>
       <c r="EY24">
-        <v>248.8926176</v>
+        <v>0</v>
       </c>
       <c r="EZ24">
         <v>0</v>
@@ -28782,7 +28782,7 @@
         <v>0</v>
       </c>
       <c r="GE24">
-        <v>2.1300437</v>
+        <v>0</v>
       </c>
       <c r="GF24">
         <v>0</v>
@@ -28797,7 +28797,7 @@
         <v>0</v>
       </c>
       <c r="GJ24">
-        <v>5.0950579</v>
+        <v>0</v>
       </c>
       <c r="GK24">
         <v>0</v>
@@ -28815,7 +28815,7 @@
         <v>0</v>
       </c>
       <c r="GP24">
-        <v>0.2663733</v>
+        <v>0</v>
       </c>
       <c r="GQ24">
         <v>0</v>
@@ -28872,7 +28872,7 @@
         <v>0</v>
       </c>
       <c r="HI24">
-        <v>4.7082489</v>
+        <v>0</v>
       </c>
       <c r="HJ24">
         <v>0</v>
@@ -28935,7 +28935,7 @@
         <v>0</v>
       </c>
       <c r="ID24">
-        <v>3.7665569</v>
+        <v>0</v>
       </c>
       <c r="IE24">
         <v>0</v>
@@ -29043,7 +29043,7 @@
         <v>0</v>
       </c>
       <c r="JN24">
-        <v>206.6806847</v>
+        <v>0</v>
       </c>
       <c r="JO24">
         <v>0</v>
@@ -29223,7 +29223,7 @@
         <v>0</v>
       </c>
       <c r="LV24">
-        <v>4.5465453</v>
+        <v>0</v>
       </c>
       <c r="LW24">
         <v>0</v>
@@ -29352,7 +29352,7 @@
         <v>0</v>
       </c>
       <c r="NM24">
-        <v>2.943632</v>
+        <v>0</v>
       </c>
       <c r="NN24">
         <v>0</v>
@@ -29450,7 +29450,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>136.4563121</v>
+        <v>0</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -29663,7 +29663,7 @@
         <v>0</v>
       </c>
       <c r="BY25">
-        <v>5.4779481</v>
+        <v>0</v>
       </c>
       <c r="BZ25">
         <v>0</v>
@@ -29822,7 +29822,7 @@
         <v>0</v>
       </c>
       <c r="DZ25">
-        <v>3.9232684</v>
+        <v>0</v>
       </c>
       <c r="EA25">
         <v>0</v>
@@ -29897,7 +29897,7 @@
         <v>0</v>
       </c>
       <c r="EY25">
-        <v>139.1187274</v>
+        <v>0</v>
       </c>
       <c r="EZ25">
         <v>0</v>
@@ -30107,7 +30107,7 @@
         <v>0</v>
       </c>
       <c r="HQ25">
-        <v>3.0647721</v>
+        <v>0</v>
       </c>
       <c r="HR25">
         <v>0</v>
@@ -30254,7 +30254,7 @@
         <v>0</v>
       </c>
       <c r="JN25">
-        <v>139.2570837</v>
+        <v>0</v>
       </c>
       <c r="JO25">
         <v>0</v>
@@ -30308,7 +30308,7 @@
         <v>0</v>
       </c>
       <c r="KF25">
-        <v>2.6659057</v>
+        <v>0</v>
       </c>
       <c r="KG25">
         <v>0</v>
@@ -30434,7 +30434,7 @@
         <v>0</v>
       </c>
       <c r="LV25">
-        <v>2.1704414</v>
+        <v>0</v>
       </c>
       <c r="LW25">
         <v>0</v>
@@ -30479,7 +30479,7 @@
         <v>0</v>
       </c>
       <c r="MK25">
-        <v>59.5656408</v>
+        <v>0</v>
       </c>
       <c r="ML25">
         <v>0</v>
